--- a/src/src.xlsx
+++ b/src/src.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\AppData\Local\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uni\AppData\Local\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5A27285-3E31-45F1-A73F-27A427497076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF7A66E2-B8EF-4D69-B0EB-419C74E17309}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2535" windowWidth="24645" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="-12645" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
